--- a/ejercicios/e5Matriz/e5Matrices.xlsx
+++ b/ejercicios/e5Matriz/e5Matrices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITESM\Octavo Semestre\Graficas\itesm-tol-tc3022\ejercicios\e5Matrices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITESM\Octavo Semestre\Graficas\itesm-tol-tc3022\ejercicios\e5Matriz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EABC1B-59F4-4747-A5DA-A93FE0B73950}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F57E408-8B84-4F44-ADCB-0BDCF0316F69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{37F338F6-2272-469E-98F8-74182B49ACE6}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{37F338F6-2272-469E-98F8-74182B49ACE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Translación" sheetId="2" r:id="rId1"/>
@@ -1700,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B96FA-45CC-489A-AA89-EC31929E2B09}">
   <dimension ref="C3:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42325E75-382C-4A00-BAFC-DE120E49EB54}">
   <dimension ref="C3:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,10 +2031,10 @@
       </c>
       <c r="E5" s="4" cm="1">
         <f t="array" ref="E5:E8">MMULT(J5:M8,R5:R8)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -2058,14 +2058,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1.22514845490862E-16</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f>COS($I$13)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>2</v>
       </c>
       <c r="L6" s="4">
         <f>-SIN($I$13)</f>
@@ -2299,15 +2298,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE35F44CEF952D4797C6B79390C18252" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b06cc919f7c81e1f3c77d1eb12beb097">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ad315636-d935-4a00-b261-e3c0175a2d3c" xmlns:ns4="8b74f808-dc08-46c3-bc90-2410cc9891be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5317b3ae4c9bb462cc58a334fc7aba4d" ns3:_="" ns4:_="">
     <xsd:import namespace="ad315636-d935-4a00-b261-e3c0175a2d3c"/>
@@ -2492,6 +2482,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2499,14 +2498,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993CDF96-8873-4B5F-A29D-59E254BDEE64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F23497-D44A-4638-B8ED-589456008A23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2525,6 +2516,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993CDF96-8873-4B5F-A29D-59E254BDEE64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94138A94-6D9E-4BD9-B558-46722954C06E}">
   <ds:schemaRefs>
